--- a/data/INPUT/LABOUR_COMMISSION_10_06_2025.xlsx
+++ b/data/INPUT/LABOUR_COMMISSION_10_06_2025.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$J$1745</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$K$1745</definedName>
   </definedNames>
   <calcPr calcId="162913" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="191">
   <si>
     <t>regnumber</t>
   </si>
@@ -601,6 +601,12 @@
   </si>
   <si>
     <t>01975232-5529-4aca-591e-d7f6ad9b7ea1</t>
+  </si>
+  <si>
+    <t>doc_class</t>
+  </si>
+  <si>
+    <t>labour_commission</t>
   </si>
 </sst>
 </file>
@@ -872,105 +878,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="1"/>
-    <col min="7" max="7" width="32.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="38.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="1"/>
+    <col min="8" max="8" width="32.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="38.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
@@ -978,74 +990,83 @@
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" s="1">
-        <v>7707111111</v>
       </c>
       <c r="I4" s="1">
         <v>7707111111</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="1">
+        <v>7707111111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="H5" s="1">
-        <v>770000001</v>
       </c>
       <c r="I5" s="1">
         <v>770000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="1">
+        <v>770000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>76</v>
@@ -1053,28 +1074,31 @@
       <c r="I6" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>13</v>
@@ -1082,372 +1106,414 @@
       <c r="I7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I12" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I18" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>50</v>
@@ -1455,28 +1521,31 @@
       <c r="I21" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>53</v>
@@ -1484,28 +1553,31 @@
       <c r="I22" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>94</v>
@@ -1513,28 +1585,31 @@
       <c r="I23" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="G24" s="1">
-        <v>46000007</v>
       </c>
       <c r="H24" s="1">
         <v>46000007</v>
@@ -1542,28 +1617,31 @@
       <c r="I24" s="1">
         <v>46000007</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="1">
+        <v>46000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="G25" s="1">
-        <v>2300000937</v>
       </c>
       <c r="H25" s="1">
         <v>2300000937</v>
@@ -1571,135 +1649,150 @@
       <c r="I25" s="1">
         <v>2300000937</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="1">
+        <v>2300000937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>200000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>100</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75">
+    <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>13</v>
@@ -1707,106 +1800,118 @@
       <c r="I30" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H33" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>183</v>
@@ -1814,57 +1919,63 @@
       <c r="I34" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>13</v>
@@ -1872,100 +1983,112 @@
       <c r="I36" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="H37" s="1">
-        <v>1000001018</v>
       </c>
       <c r="I37" s="1">
         <v>1000001018</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="1">
+        <v>1000001018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>13</v>
@@ -1973,372 +2096,414 @@
       <c r="I40" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I44" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H45" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H46" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H47" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H48" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H50" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I51" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>50</v>
@@ -2346,28 +2511,31 @@
       <c r="I54" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>53</v>
@@ -2375,68 +2543,77 @@
       <c r="I55" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.75">
+    <row r="58" spans="1:10" ht="15.75">
       <c r="A58" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>138</v>
@@ -2444,28 +2621,31 @@
       <c r="I58" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.75">
+      <c r="J58" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75">
       <c r="A59" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>140</v>
@@ -2473,106 +2653,118 @@
       <c r="I59" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>100</v>
       </c>
       <c r="I61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J61" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>13</v>
@@ -2580,109 +2772,121 @@
       <c r="I63" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H64" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H65" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H66" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>183</v>
@@ -2690,57 +2894,63 @@
       <c r="I67" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>151</v>
       </c>
       <c r="I68" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>13</v>
@@ -2748,28 +2958,31 @@
       <c r="I69" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>154</v>
@@ -2777,77 +2990,86 @@
       <c r="I70" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="J71" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J72" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>13</v>
@@ -2855,86 +3077,95 @@
       <c r="I73" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>163</v>
       </c>
       <c r="I75" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J75" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>166</v>
@@ -2942,285 +3173,318 @@
       <c r="I76" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I77" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H78" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H79" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="J79" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H80" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H81" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="I82" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="J82" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H83" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I84" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="J85" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>50</v>
@@ -3228,28 +3492,31 @@
       <c r="I87" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>53</v>
@@ -3257,155 +3524,173 @@
       <c r="I88" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="J89" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.75">
+    <row r="90" spans="1:10" ht="15.75">
       <c r="A90" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H90" s="1" t="s">
+      <c r="H90" s="2" t="s">
         <v>140</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" ht="15.75">
+      <c r="J90" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.75">
       <c r="A91" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H91" s="1" t="s">
+      <c r="H91" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="J92" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15.75">
+    <row r="93" spans="1:10" ht="15.75">
       <c r="A93" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="I93" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J93" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>100</v>
@@ -3413,57 +3698,63 @@
       <c r="I94" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" ht="15.75">
+      <c r="J94" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15.75">
       <c r="A95" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H95" s="1" t="s">
+      <c r="H95" s="2" t="s">
         <v>179</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="F96" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>13</v>
@@ -3471,88 +3762,100 @@
       <c r="I96" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="F97" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H97" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="F98" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G98" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H98" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="F99" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>183</v>
       </c>
       <c r="I99" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J99" s="1" t="s">
         <v>183</v>
       </c>
     </row>

--- a/data/INPUT/LABOUR_COMMISSION_10_06_2025.xlsx
+++ b/data/INPUT/LABOUR_COMMISSION_10_06_2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="188">
   <si>
     <t>regnumber</t>
   </si>
@@ -588,16 +588,7 @@
     <t>100</t>
   </si>
   <si>
-    <t>772000/19080</t>
-  </si>
-  <si>
-    <t>355555</t>
-  </si>
-  <si>
     <t>01975232-549d-ecd4-2751-9f72ca2b4525</t>
-  </si>
-  <si>
-    <t>776000/31121</t>
   </si>
   <si>
     <t>01975232-5529-4aca-591e-d7f6ad9b7ea1</t>
@@ -880,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -903,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -935,7 +926,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -967,7 +958,7 @@
         <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -999,7 +990,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>68</v>
@@ -1025,7 +1016,7 @@
         <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -1051,7 +1042,7 @@
         <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>68</v>
@@ -1083,7 +1074,7 @@
         <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>68</v>
@@ -1115,7 +1106,7 @@
         <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>68</v>
@@ -1147,7 +1138,7 @@
         <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>68</v>
@@ -1179,7 +1170,7 @@
         <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>68</v>
@@ -1211,7 +1202,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>68</v>
@@ -1240,7 +1231,7 @@
         <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>68</v>
@@ -1266,7 +1257,7 @@
         <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>68</v>
@@ -1298,7 +1289,7 @@
         <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>68</v>
@@ -1327,7 +1318,7 @@
         <v>67</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>68</v>
@@ -1356,7 +1347,7 @@
         <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>68</v>
@@ -1388,7 +1379,7 @@
         <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>68</v>
@@ -1417,7 +1408,7 @@
         <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>68</v>
@@ -1443,7 +1434,7 @@
         <v>67</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>68</v>
@@ -1466,7 +1457,7 @@
         <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>68</v>
@@ -1498,7 +1489,7 @@
         <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>68</v>
@@ -1530,7 +1521,7 @@
         <v>67</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>68</v>
@@ -1562,7 +1553,7 @@
         <v>67</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>68</v>
@@ -1594,7 +1585,7 @@
         <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>68</v>
@@ -1626,7 +1617,7 @@
         <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>68</v>
@@ -1658,7 +1649,7 @@
         <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>68</v>
@@ -1681,7 +1672,7 @@
         <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>68</v>
@@ -1713,7 +1704,7 @@
         <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>68</v>
@@ -1745,7 +1736,7 @@
         <v>67</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>68</v>
@@ -1777,7 +1768,7 @@
         <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>68</v>
@@ -1809,7 +1800,7 @@
         <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>68</v>
@@ -1841,7 +1832,7 @@
         <v>67</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>68</v>
@@ -1873,7 +1864,7 @@
         <v>67</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>68</v>
@@ -1899,10 +1890,10 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>68</v>
@@ -1928,7 +1919,7 @@
         <v>106</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>107</v>
@@ -1960,7 +1951,7 @@
         <v>106</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>107</v>
@@ -1992,7 +1983,7 @@
         <v>106</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>107</v>
@@ -2024,7 +2015,7 @@
         <v>106</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>107</v>
@@ -2050,7 +2041,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>107</v>
@@ -2073,7 +2064,7 @@
         <v>106</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>107</v>
@@ -2105,7 +2096,7 @@
         <v>106</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>107</v>
@@ -2137,7 +2128,7 @@
         <v>106</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>107</v>
@@ -2169,7 +2160,7 @@
         <v>106</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>107</v>
@@ -2201,7 +2192,7 @@
         <v>106</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>107</v>
@@ -2227,7 +2218,7 @@
         <v>106</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>107</v>
@@ -2256,7 +2247,7 @@
         <v>106</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>107</v>
@@ -2285,7 +2276,7 @@
         <v>106</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>107</v>
@@ -2314,7 +2305,7 @@
         <v>106</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>107</v>
@@ -2346,7 +2337,7 @@
         <v>106</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>107</v>
@@ -2378,7 +2369,7 @@
         <v>106</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>107</v>
@@ -2407,7 +2398,7 @@
         <v>106</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>107</v>
@@ -2433,7 +2424,7 @@
         <v>106</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>107</v>
@@ -2456,7 +2447,7 @@
         <v>106</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>107</v>
@@ -2488,7 +2479,7 @@
         <v>106</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>107</v>
@@ -2520,7 +2511,7 @@
         <v>106</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>107</v>
@@ -2552,7 +2543,7 @@
         <v>106</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>107</v>
@@ -2575,7 +2566,7 @@
         <v>106</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>107</v>
@@ -2598,7 +2589,7 @@
         <v>106</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>107</v>
@@ -2630,7 +2621,7 @@
         <v>106</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>107</v>
@@ -2662,7 +2653,7 @@
         <v>106</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>107</v>
@@ -2694,7 +2685,7 @@
         <v>106</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>107</v>
@@ -2726,7 +2717,7 @@
         <v>106</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>107</v>
@@ -2749,7 +2740,7 @@
         <v>106</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>107</v>
@@ -2781,7 +2772,7 @@
         <v>106</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>107</v>
@@ -2813,7 +2804,7 @@
         <v>106</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>107</v>
@@ -2842,7 +2833,7 @@
         <v>106</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>107</v>
@@ -2871,16 +2862,16 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>181</v>
@@ -2903,7 +2894,7 @@
         <v>147</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>148</v>
@@ -2935,7 +2926,7 @@
         <v>147</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>148</v>
@@ -2967,7 +2958,7 @@
         <v>147</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>148</v>
@@ -2999,7 +2990,7 @@
         <v>147</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>148</v>
@@ -3022,7 +3013,7 @@
         <v>147</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>148</v>
@@ -3054,7 +3045,7 @@
         <v>147</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>148</v>
@@ -3086,7 +3077,7 @@
         <v>147</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>148</v>
@@ -3118,7 +3109,7 @@
         <v>147</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>148</v>
@@ -3150,7 +3141,7 @@
         <v>147</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>148</v>
@@ -3182,7 +3173,7 @@
         <v>147</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>148</v>
@@ -3208,7 +3199,7 @@
         <v>147</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>148</v>
@@ -3237,7 +3228,7 @@
         <v>147</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>148</v>
@@ -3266,7 +3257,7 @@
         <v>147</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>148</v>
@@ -3295,7 +3286,7 @@
         <v>147</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>148</v>
@@ -3327,7 +3318,7 @@
         <v>147</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>148</v>
@@ -3359,7 +3350,7 @@
         <v>147</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>148</v>
@@ -3388,7 +3379,7 @@
         <v>147</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>148</v>
@@ -3414,7 +3405,7 @@
         <v>147</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>148</v>
@@ -3437,7 +3428,7 @@
         <v>147</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>148</v>
@@ -3469,7 +3460,7 @@
         <v>147</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>148</v>
@@ -3501,7 +3492,7 @@
         <v>147</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>148</v>
@@ -3533,7 +3524,7 @@
         <v>147</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>148</v>
@@ -3556,7 +3547,7 @@
         <v>147</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>148</v>
@@ -3588,7 +3579,7 @@
         <v>147</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>148</v>
@@ -3620,7 +3611,7 @@
         <v>147</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>148</v>
@@ -3643,7 +3634,7 @@
         <v>147</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>148</v>
@@ -3675,7 +3666,7 @@
         <v>147</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>148</v>
@@ -3707,7 +3698,7 @@
         <v>147</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>148</v>
@@ -3739,7 +3730,7 @@
         <v>147</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>148</v>
@@ -3771,7 +3762,7 @@
         <v>147</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>148</v>
@@ -3803,7 +3794,7 @@
         <v>147</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>148</v>
@@ -3832,16 +3823,16 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>181</v>
